--- a/documentation/GANTT_Gitcon_GruS.xlsx
+++ b/documentation/GANTT_Gitcon_GruS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smon\source\MTAP-MIDI-Guitar-Converter\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\source\MTAP-MIDI-Guitar-Converter\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD911F76-495E-4D72-87AA-C6604E43F334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E635DE9-254B-40B0-9E6D-4763A31D50ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="7" r:id="rId1"/>
@@ -216,9 +216,6 @@
     </r>
   </si>
   <si>
-    <t>MIDI Anbindung</t>
-  </si>
-  <si>
     <t>◊ 31.3</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Review und Bestellung des Mainboards</t>
+  </si>
+  <si>
+    <t>Code Base mit MIDI Anbindung</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,19 +1421,19 @@
   <dimension ref="A1:AX34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="3.44140625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="49" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="49" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="25"/>
       <c r="C1" s="2"/>
@@ -1492,7 +1492,7 @@
       <c r="AV1" s="78"/>
       <c r="AW1" s="79"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="AV2" s="75"/>
       <c r="AW2" s="76"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="AV3" s="34"/>
       <c r="AW3" s="35"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="AV4" s="38"/>
       <c r="AW4" s="39"/>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="AV5" s="38"/>
       <c r="AW5" s="39"/>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="AV6" s="38"/>
       <c r="AW6" s="39"/>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="AV7" s="38"/>
       <c r="AW7" s="39"/>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1907,13 +1907,13 @@
       <c r="AV8" s="38"/>
       <c r="AW8" s="39"/>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
       <c r="B9" s="59"/>
       <c r="C9" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -1964,7 +1964,7 @@
       <c r="AV9" s="38"/>
       <c r="AW9" s="39"/>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -2021,13 +2021,13 @@
       <c r="AV10" s="38"/>
       <c r="AW10" s="39"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2078,13 +2078,13 @@
       <c r="AV11" s="38"/>
       <c r="AW11" s="39"/>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="62" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -2135,7 +2135,7 @@
       <c r="AV12" s="38"/>
       <c r="AW12" s="39"/>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="AV13" s="38"/>
       <c r="AW13" s="39"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="AV14" s="38"/>
       <c r="AW14" s="39"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -2306,13 +2306,13 @@
       <c r="AV15" s="38"/>
       <c r="AW15" s="39"/>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -2363,7 +2363,7 @@
       <c r="AV16" s="38"/>
       <c r="AW16" s="39"/>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -2420,13 +2420,13 @@
       <c r="AV17" s="38"/>
       <c r="AW17" s="39"/>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
       <c r="B18" s="59"/>
       <c r="C18" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -2477,7 +2477,7 @@
       <c r="AV18" s="38"/>
       <c r="AW18" s="39"/>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="AV19" s="38"/>
       <c r="AW19" s="39"/>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="AV20" s="38"/>
       <c r="AW20" s="39"/>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="AV21" s="38"/>
       <c r="AW21" s="39"/>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>20</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="AV22" s="38"/>
       <c r="AW22" s="39"/>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>21</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="AV23" s="38"/>
       <c r="AW23" s="39"/>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>22</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="AV24" s="38"/>
       <c r="AW24" s="39"/>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -2870,7 +2870,7 @@
       <c r="AV25" s="38"/>
       <c r="AW25" s="39"/>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="AK26" s="38"/>
       <c r="AL26" s="38"/>
       <c r="AM26" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN26" s="38"/>
       <c r="AO26" s="38"/>
@@ -2927,7 +2927,7 @@
       <c r="AV26" s="38"/>
       <c r="AW26" s="39"/>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>25</v>
       </c>
@@ -2984,7 +2984,7 @@
       <c r="AV27" s="41"/>
       <c r="AW27" s="42"/>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="H28" s="50" t="s">
         <v>36</v>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="AW28" s="5"/>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="AW29" s="5"/>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3050,7 +3050,7 @@
       <c r="AV30" s="12"/>
       <c r="AW30" s="13"/>
     </row>
-    <row r="31" spans="1:49" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="56" t="s">
         <v>37</v>
@@ -3058,7 +3058,7 @@
       <c r="K31" s="15"/>
       <c r="AW31" s="5"/>
     </row>
-    <row r="32" spans="1:49" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="57" t="s">
         <v>38</v>
@@ -3086,7 +3086,7 @@
       <c r="AN32" s="47"/>
       <c r="AW32" s="5"/>
     </row>
-    <row r="33" spans="1:50" s="53" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="55" t="s">
         <v>43</v>
@@ -3095,7 +3095,7 @@
       <c r="AW33" s="5"/>
       <c r="AX33" s="54"/>
     </row>
-    <row r="34" spans="1:50" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3168,9 +3168,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3306,26 +3309,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3349,9 +3341,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc157ffa-89df-417c-a5af-b14496f38a84"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>